--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.2</t>
+    <t>0.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -2551,7 +2551,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -3395,7 +3395,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3515,7 +3515,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -8099,7 +8099,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8339,7 +8339,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8459,7 +8459,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8579,7 +8579,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8699,7 +8699,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8817,7 +8817,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8935,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9885,7 +9885,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10601,7 +10601,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -2551,7 +2551,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>79</v>
@@ -3395,7 +3395,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
@@ -3515,7 +3515,7 @@
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -8099,7 +8099,7 @@
         <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -8339,7 +8339,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8459,7 +8459,7 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8579,7 +8579,7 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8699,7 +8699,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>79</v>
@@ -8817,7 +8817,7 @@
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>79</v>
@@ -8935,7 +8935,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>79</v>
@@ -9885,7 +9885,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
@@ -10601,7 +10601,7 @@
         <v>80</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -9649,7 +9649,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>79</v>

--- a/currentbuild/StructureDefinition-lmdi-condition.xlsx
+++ b/currentbuild/StructureDefinition-lmdi-condition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.4</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-12</t>
+    <t>2025-03-10</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Diagnosen som pasienten har fått rekvirert og administrert legemiddelet for.</t>
+    <t>Diagnosen som pasienten har fått rekvirert eller administrert legemiddelet for.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -955,7 +955,13 @@
     <t>Condition.code.coding:ICD10.code</t>
   </si>
   <si>
+    <t>Diagnosekode fra kodeverket</t>
+  </si>
+  <si>
     <t>Condition.code.coding:ICD10.display</t>
+  </si>
+  <si>
+    <t>Beskrivelse av diagnosekode (fra kodeverket)</t>
   </si>
   <si>
     <t>Condition.code.coding:ICD10.userSelected</t>
@@ -5698,7 +5704,7 @@
         <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>268</v>
@@ -5789,7 +5795,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>274</v>
@@ -5818,7 +5824,7 @@
         <v>217</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>276</v>
@@ -5909,7 +5915,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>282</v>
@@ -6031,13 +6037,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>79</v>
@@ -6062,13 +6068,13 @@
         <v>229</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>233</v>
@@ -6155,7 +6161,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>244</v>
@@ -6273,7 +6279,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>246</v>
@@ -6393,7 +6399,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>248</v>
@@ -6428,7 +6434,7 @@
         <v>250</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>252</v>
@@ -6441,7 +6447,7 @@
         <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="T39" t="s" s="2">
         <v>79</v>
@@ -6515,7 +6521,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>258</v>
@@ -6635,7 +6641,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>266</v>
@@ -6664,7 +6670,7 @@
         <v>111</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>268</v>
@@ -6755,7 +6761,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>274</v>
@@ -6784,7 +6790,7 @@
         <v>217</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>276</v>
@@ -6875,7 +6881,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>282</v>
@@ -6997,13 +7003,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>228</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>79</v>
@@ -7028,10 +7034,10 @@
         <v>229</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="N44" t="s" s="2">
         <v>232</v>
@@ -7121,7 +7127,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>244</v>
@@ -7239,7 +7245,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>246</v>
@@ -7359,7 +7365,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>248</v>
@@ -7407,7 +7413,7 @@
         <v>79</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="T47" t="s" s="2">
         <v>79</v>
@@ -7481,7 +7487,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>258</v>
@@ -7601,7 +7607,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>266</v>
@@ -7630,7 +7636,7 @@
         <v>111</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>268</v>
@@ -7721,7 +7727,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>274</v>
@@ -7750,7 +7756,7 @@
         <v>217</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="M50" t="s" s="2">
         <v>276</v>
@@ -7841,7 +7847,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>282</v>
@@ -7963,10 +7969,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7992,16 +7998,16 @@
         <v>217</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8050,7 +8056,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8071,10 +8077,10 @@
         <v>79</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
@@ -8085,10 +8091,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8114,13 +8120,13 @@
         <v>158</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8149,10 +8155,10 @@
         <v>207</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8170,7 +8176,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8188,31 +8194,31 @@
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8231,17 +8237,17 @@
         <v>92</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8290,7 +8296,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>91</v>
@@ -8305,19 +8311,19 @@
         <v>103</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>79</v>
@@ -8325,10 +8331,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8351,16 +8357,16 @@
         <v>92</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8410,7 +8416,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8425,19 +8431,19 @@
         <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AP55" t="s" s="2">
         <v>79</v>
@@ -8445,10 +8451,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8471,16 +8477,16 @@
         <v>92</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8530,7 +8536,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8545,19 +8551,19 @@
         <v>103</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AP56" t="s" s="2">
         <v>79</v>
@@ -8565,10 +8571,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8591,16 +8597,16 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -8650,7 +8656,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8659,7 +8665,7 @@
         <v>91</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>103</v>
@@ -8674,10 +8680,10 @@
         <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AP57" t="s" s="2">
         <v>79</v>
@@ -8685,10 +8691,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8711,13 +8717,13 @@
         <v>92</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8768,7 +8774,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8789,13 +8795,13 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>79</v>
@@ -8803,10 +8809,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8829,13 +8835,13 @@
         <v>92</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8886,7 +8892,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -8910,10 +8916,10 @@
         <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>79</v>
@@ -8921,10 +8927,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8947,13 +8953,13 @@
         <v>92</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9004,7 +9010,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9025,13 +9031,13 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AO60" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>79</v>
@@ -9039,10 +9045,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9065,13 +9071,13 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9122,7 +9128,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9134,7 +9140,7 @@
         <v>79</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
@@ -9146,7 +9152,7 @@
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>79</v>
@@ -9157,10 +9163,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9275,10 +9281,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9395,14 +9401,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9424,10 +9430,10 @@
         <v>137</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>140</v>
@@ -9482,7 +9488,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9517,10 +9523,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9546,10 +9552,10 @@
         <v>158</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9579,10 +9585,10 @@
         <v>207</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>79</v>
@@ -9600,7 +9606,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9609,7 +9615,7 @@
         <v>91</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>103</v>
@@ -9618,7 +9624,7 @@
         <v>79</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>168</v>
@@ -9635,10 +9641,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9661,13 +9667,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9718,7 +9724,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9727,7 +9733,7 @@
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>103</v>
@@ -9742,7 +9748,7 @@
         <v>79</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>79</v>
@@ -9753,10 +9759,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9782,10 +9788,10 @@
         <v>158</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9815,10 +9821,10 @@
         <v>207</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -9836,7 +9842,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9860,7 +9866,7 @@
         <v>79</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
@@ -9871,10 +9877,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9897,16 +9903,16 @@
         <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -9956,7 +9962,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9968,7 +9974,7 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
@@ -9980,7 +9986,7 @@
         <v>79</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>79</v>
@@ -9991,10 +9997,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10109,10 +10115,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10229,14 +10235,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10258,10 +10264,10 @@
         <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="N71" t="s" s="2">
         <v>140</v>
@@ -10316,7 +10322,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10351,10 +10357,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10380,10 +10386,10 @@
         <v>158</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10413,10 +10419,10 @@
         <v>207</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10434,7 +10440,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10443,13 +10449,13 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>188</v>
@@ -10458,10 +10464,10 @@
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>79</v>
@@ -10469,10 +10475,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10495,13 +10501,13 @@
         <v>92</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10552,7 +10558,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10561,7 +10567,7 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>103</v>
@@ -10576,10 +10582,10 @@
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AO73" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AP73" t="s" s="2">
         <v>79</v>
@@ -10587,10 +10593,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10613,13 +10619,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10670,7 +10676,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10685,16 +10691,16 @@
         <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
